--- a/www.eia.gov/electricity/monthly/xls/table_6_02_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_6_02_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
-  <si>
-    <t>Table 6.2.B. Net Summer Capacity Using Primarily Renewable Energy Sources and by State, October 2016 and 2015 (Megawatts)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+  <si>
+    <t>Table 6.2.B. Net Summer Capacity Using Primarily Renewable Energy Sources and by State, November 2016 and 2015 (Megawatts)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -82,10 +82,10 @@
 </t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>New England</t>
@@ -1420,7 +1420,7 @@
         <v>412.9</v>
       </c>
       <c r="E5" s="9">
-        <v>370.3</v>
+        <v>373.9</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -1450,25 +1450,25 @@
         <v>5089.8</v>
       </c>
       <c r="O5" s="9">
-        <v>4969.3999999999996</v>
+        <v>4973</v>
       </c>
       <c r="P5" s="9">
-        <v>1322</v>
+        <v>1365.1</v>
       </c>
       <c r="Q5" s="9">
-        <v>940.8</v>
+        <v>988</v>
       </c>
       <c r="R5" s="9">
-        <v>1734.9</v>
+        <v>1778</v>
       </c>
       <c r="S5" s="9">
-        <v>1311.1</v>
+        <v>1361.9</v>
       </c>
       <c r="T5" s="9">
-        <v>1734.9</v>
+        <v>1778</v>
       </c>
       <c r="U5" s="9">
-        <v>1311.1</v>
+        <v>1361.9</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1518,22 +1518,22 @@
         <v>331.4</v>
       </c>
       <c r="P6" s="11">
-        <v>252.3</v>
+        <v>258.7</v>
       </c>
       <c r="Q6" s="11">
-        <v>162.80000000000001</v>
+        <v>171.8</v>
       </c>
       <c r="R6" s="11">
-        <v>264.5</v>
+        <v>270.89999999999998</v>
       </c>
       <c r="S6" s="11">
-        <v>172.8</v>
+        <v>181.8</v>
       </c>
       <c r="T6" s="11">
-        <v>264.5</v>
+        <v>270.89999999999998</v>
       </c>
       <c r="U6" s="11">
-        <v>172.8</v>
+        <v>181.8</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1583,22 +1583,22 @@
         <v>2159.5</v>
       </c>
       <c r="P7" s="11">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="Q7" s="11">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="R7" s="11">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="S7" s="11">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="T7" s="11">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="U7" s="11">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>356.1</v>
       </c>
       <c r="E8" s="11">
-        <v>318.7</v>
+        <v>321.3</v>
       </c>
       <c r="F8" s="11">
         <v>0</v>
@@ -1645,25 +1645,25 @@
         <v>995.8</v>
       </c>
       <c r="O8" s="11">
-        <v>947.7</v>
+        <v>950.3</v>
       </c>
       <c r="P8" s="11">
-        <v>924.1</v>
+        <v>956.1</v>
       </c>
       <c r="Q8" s="11">
-        <v>685.2</v>
+        <v>718.2</v>
       </c>
       <c r="R8" s="11">
-        <v>1280.2</v>
+        <v>1312.2</v>
       </c>
       <c r="S8" s="11">
-        <v>1003.9</v>
+        <v>1039.5</v>
       </c>
       <c r="T8" s="11">
-        <v>1280.2</v>
+        <v>1312.2</v>
       </c>
       <c r="U8" s="11">
-        <v>1003.9</v>
+        <v>1039.5</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1713,22 +1713,22 @@
         <v>918.9</v>
       </c>
       <c r="P9" s="11">
-        <v>47</v>
+        <v>48.9</v>
       </c>
       <c r="Q9" s="11">
-        <v>20.399999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="R9" s="11">
-        <v>47</v>
+        <v>48.9</v>
       </c>
       <c r="S9" s="11">
-        <v>20.399999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="T9" s="11">
-        <v>47</v>
+        <v>48.9</v>
       </c>
       <c r="U9" s="11">
-        <v>20.399999999999999</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E10" s="11">
-        <v>9.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F10" s="11">
         <v>0</v>
@@ -1775,25 +1775,25 @@
         <v>69.3</v>
       </c>
       <c r="O10" s="11">
-        <v>56.3</v>
+        <v>57.3</v>
       </c>
       <c r="P10" s="11">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="Q10" s="11">
-        <v>9.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="R10" s="11">
-        <v>25.7</v>
+        <v>26.5</v>
       </c>
       <c r="S10" s="11">
-        <v>18.600000000000001</v>
+        <v>20</v>
       </c>
       <c r="T10" s="11">
-        <v>25.7</v>
+        <v>26.5</v>
       </c>
       <c r="U10" s="11">
-        <v>18.600000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1843,22 +1843,22 @@
         <v>555.6</v>
       </c>
       <c r="P11" s="11">
-        <v>61.7</v>
+        <v>62.9</v>
       </c>
       <c r="Q11" s="11">
-        <v>47.3</v>
+        <v>49.1</v>
       </c>
       <c r="R11" s="11">
-        <v>96.1</v>
+        <v>97.3</v>
       </c>
       <c r="S11" s="11">
-        <v>79.7</v>
+        <v>81.5</v>
       </c>
       <c r="T11" s="11">
-        <v>96.1</v>
+        <v>97.3</v>
       </c>
       <c r="U11" s="11">
-        <v>79.7</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>3088.1</v>
       </c>
       <c r="C12" s="9">
-        <v>3098.5</v>
+        <v>3088.1</v>
       </c>
       <c r="D12" s="9">
         <v>615.1</v>
@@ -1893,7 +1893,7 @@
         <v>1365.2</v>
       </c>
       <c r="K12" s="9">
-        <v>1384.5</v>
+        <v>1381.6</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -1905,25 +1905,25 @@
         <v>10691.9</v>
       </c>
       <c r="O12" s="9">
-        <v>10657.6</v>
+        <v>10644.3</v>
       </c>
       <c r="P12" s="9">
-        <v>2147.6999999999998</v>
+        <v>2186.1999999999998</v>
       </c>
       <c r="Q12" s="9">
-        <v>1650.2</v>
+        <v>1673.2</v>
       </c>
       <c r="R12" s="9">
-        <v>2762.8</v>
+        <v>2801.3</v>
       </c>
       <c r="S12" s="9">
-        <v>2201.3000000000002</v>
+        <v>2224.3000000000002</v>
       </c>
       <c r="T12" s="9">
-        <v>2762.8</v>
+        <v>2801.3</v>
       </c>
       <c r="U12" s="9">
-        <v>2201.3000000000002</v>
+        <v>2224.3000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1973,22 +1973,22 @@
         <v>682.6</v>
       </c>
       <c r="P13" s="11">
-        <v>1227.5999999999999</v>
+        <v>1250.0999999999999</v>
       </c>
       <c r="Q13" s="11">
-        <v>994.4</v>
+        <v>1006.1</v>
       </c>
       <c r="R13" s="11">
-        <v>1706.2</v>
+        <v>1728.7</v>
       </c>
       <c r="S13" s="11">
-        <v>1428</v>
+        <v>1439.7</v>
       </c>
       <c r="T13" s="11">
-        <v>1706.2</v>
+        <v>1728.7</v>
       </c>
       <c r="U13" s="11">
-        <v>1428</v>
+        <v>1439.7</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2038,22 +2038,22 @@
         <v>7109.1</v>
       </c>
       <c r="P14" s="11">
-        <v>706.6</v>
+        <v>719.4</v>
       </c>
       <c r="Q14" s="11">
-        <v>479.3</v>
+        <v>488.9</v>
       </c>
       <c r="R14" s="11">
-        <v>800.9</v>
+        <v>813.7</v>
       </c>
       <c r="S14" s="11">
-        <v>554.6</v>
+        <v>564.20000000000005</v>
       </c>
       <c r="T14" s="11">
-        <v>800.9</v>
+        <v>813.7</v>
       </c>
       <c r="U14" s="11">
-        <v>554.6</v>
+        <v>564.20000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>1333.5</v>
       </c>
       <c r="C15" s="11">
-        <v>1343.9</v>
+        <v>1333.5</v>
       </c>
       <c r="D15" s="11">
         <v>42.2</v>
@@ -2088,7 +2088,7 @@
         <v>578.9</v>
       </c>
       <c r="K15" s="11">
-        <v>580.20000000000005</v>
+        <v>577.29999999999995</v>
       </c>
       <c r="L15" s="11">
         <v>0</v>
@@ -2100,25 +2100,25 @@
         <v>2854.2</v>
       </c>
       <c r="O15" s="11">
-        <v>2865.9</v>
+        <v>2852.6</v>
       </c>
       <c r="P15" s="11">
-        <v>213.5</v>
+        <v>216.8</v>
       </c>
       <c r="Q15" s="11">
-        <v>176.5</v>
+        <v>178.2</v>
       </c>
       <c r="R15" s="11">
-        <v>255.7</v>
+        <v>259</v>
       </c>
       <c r="S15" s="11">
-        <v>218.7</v>
+        <v>220.4</v>
       </c>
       <c r="T15" s="11">
-        <v>255.7</v>
+        <v>259</v>
       </c>
       <c r="U15" s="11">
-        <v>218.7</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2132,10 +2132,10 @@
         <v>7655.1</v>
       </c>
       <c r="D16" s="9">
-        <v>239.5</v>
+        <v>244.1</v>
       </c>
       <c r="E16" s="9">
-        <v>183.4</v>
+        <v>193.4</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>1268.3</v>
       </c>
       <c r="K16" s="9">
-        <v>1341.1</v>
+        <v>1291.0999999999999</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -2162,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="N16" s="9">
-        <v>10235.1</v>
+        <v>10239.700000000001</v>
       </c>
       <c r="O16" s="9">
-        <v>10089.9</v>
+        <v>10049.9</v>
       </c>
       <c r="P16" s="9">
-        <v>170.4</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="9">
-        <v>142.69999999999999</v>
+        <v>142.6</v>
       </c>
       <c r="R16" s="9">
-        <v>409.9</v>
+        <v>416.1</v>
       </c>
       <c r="S16" s="9">
-        <v>326.10000000000002</v>
+        <v>336</v>
       </c>
       <c r="T16" s="9">
-        <v>409.9</v>
+        <v>416.1</v>
       </c>
       <c r="U16" s="9">
-        <v>326.10000000000002</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2233,22 +2233,22 @@
         <v>3987.8</v>
       </c>
       <c r="P17" s="11">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="11">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="R17" s="11">
-        <v>58.5</v>
+        <v>58.8</v>
       </c>
       <c r="S17" s="11">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="T17" s="11">
-        <v>58.5</v>
+        <v>58.8</v>
       </c>
       <c r="U17" s="11">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2265,7 +2265,7 @@
         <v>155.1</v>
       </c>
       <c r="E18" s="11">
-        <v>107.9</v>
+        <v>117.9</v>
       </c>
       <c r="F18" s="11">
         <v>0</v>
@@ -2295,25 +2295,25 @@
         <v>2179.6999999999998</v>
       </c>
       <c r="O18" s="11">
-        <v>1982.5</v>
+        <v>1992.5</v>
       </c>
       <c r="P18" s="11">
-        <v>9.8000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q18" s="11">
-        <v>8.9</v>
+        <v>7.1</v>
       </c>
       <c r="R18" s="11">
-        <v>164.9</v>
+        <v>165.3</v>
       </c>
       <c r="S18" s="11">
-        <v>116.8</v>
+        <v>125</v>
       </c>
       <c r="T18" s="11">
-        <v>164.9</v>
+        <v>165.3</v>
       </c>
       <c r="U18" s="11">
-        <v>116.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
         <v>1360.1</v>
       </c>
       <c r="D19" s="11">
-        <v>7.9</v>
+        <v>12.5</v>
       </c>
       <c r="E19" s="11">
         <v>2</v>
@@ -2357,28 +2357,28 @@
         <v>0</v>
       </c>
       <c r="N19" s="11">
-        <v>2253.1</v>
+        <v>2257.6999999999998</v>
       </c>
       <c r="O19" s="11">
         <v>2253.5</v>
       </c>
       <c r="P19" s="11">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="11">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="R19" s="11">
-        <v>39.6</v>
+        <v>44.5</v>
       </c>
       <c r="S19" s="11">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
       <c r="T19" s="11">
-        <v>39.6</v>
+        <v>44.5</v>
       </c>
       <c r="U19" s="11">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2428,22 +2428,22 @@
         <v>715.6</v>
       </c>
       <c r="P20" s="11">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="Q20" s="11">
-        <v>68.7</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="R20" s="11">
-        <v>120.7</v>
+        <v>120.9</v>
       </c>
       <c r="S20" s="11">
-        <v>108.4</v>
+        <v>109.1</v>
       </c>
       <c r="T20" s="11">
-        <v>120.7</v>
+        <v>120.9</v>
       </c>
       <c r="U20" s="11">
-        <v>108.4</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>385.1</v>
       </c>
       <c r="K21" s="11">
-        <v>435.1</v>
+        <v>385.1</v>
       </c>
       <c r="L21" s="11">
         <v>0</v>
@@ -2490,25 +2490,25 @@
         <v>1109.7</v>
       </c>
       <c r="O21" s="11">
-        <v>1150.5</v>
+        <v>1100.5</v>
       </c>
       <c r="P21" s="11">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="Q21" s="11">
-        <v>19.7</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="R21" s="11">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="S21" s="11">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="T21" s="11">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="U21" s="11">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2516,10 +2516,10 @@
         <v>36</v>
       </c>
       <c r="B22" s="9">
-        <v>17998.099999999999</v>
+        <v>18175.7</v>
       </c>
       <c r="C22" s="9">
-        <v>16566.400000000001</v>
+        <v>16684.099999999999</v>
       </c>
       <c r="D22" s="9">
         <v>23.5</v>
@@ -2552,28 +2552,28 @@
         <v>0</v>
       </c>
       <c r="N22" s="9">
-        <v>21850.6</v>
+        <v>22028.2</v>
       </c>
       <c r="O22" s="9">
-        <v>20409.599999999999</v>
+        <v>20527.3</v>
       </c>
       <c r="P22" s="9">
-        <v>182.8</v>
+        <v>184.9</v>
       </c>
       <c r="Q22" s="9">
-        <v>145.1</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="R22" s="9">
-        <v>206.3</v>
+        <v>208.4</v>
       </c>
       <c r="S22" s="9">
-        <v>159.30000000000001</v>
+        <v>161.4</v>
       </c>
       <c r="T22" s="9">
-        <v>206.3</v>
+        <v>208.4</v>
       </c>
       <c r="U22" s="9">
-        <v>159.30000000000001</v>
+        <v>161.4</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2581,10 +2581,10 @@
         <v>37</v>
       </c>
       <c r="B23" s="11">
-        <v>6271.6</v>
+        <v>6299.2</v>
       </c>
       <c r="C23" s="11">
-        <v>5953.1</v>
+        <v>6070.8</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
@@ -2617,28 +2617,28 @@
         <v>0</v>
       </c>
       <c r="N23" s="11">
-        <v>6439.7</v>
+        <v>6467.3</v>
       </c>
       <c r="O23" s="11">
-        <v>6121.2</v>
+        <v>6238.9</v>
       </c>
       <c r="P23" s="11">
-        <v>38.4</v>
+        <v>39.4</v>
       </c>
       <c r="Q23" s="11">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="R23" s="11">
-        <v>38.4</v>
+        <v>39.4</v>
       </c>
       <c r="S23" s="11">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="T23" s="11">
-        <v>38.4</v>
+        <v>39.4</v>
       </c>
       <c r="U23" s="11">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2688,22 +2688,22 @@
         <v>3191.6</v>
       </c>
       <c r="P24" s="11">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Q24" s="11">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="R24" s="11">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="S24" s="11">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T24" s="11">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U24" s="11">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2753,22 +2753,22 @@
         <v>3913.7</v>
       </c>
       <c r="P25" s="11">
-        <v>27.7</v>
+        <v>28.2</v>
       </c>
       <c r="Q25" s="11">
-        <v>18.899999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="R25" s="11">
-        <v>31.7</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="S25" s="11">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="T25" s="11">
-        <v>31.7</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="U25" s="11">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2818,22 +2818,22 @@
         <v>1032.2</v>
       </c>
       <c r="P26" s="11">
-        <v>107.7</v>
+        <v>108.1</v>
       </c>
       <c r="Q26" s="11">
-        <v>93.3</v>
+        <v>94.1</v>
       </c>
       <c r="R26" s="11">
-        <v>122.2</v>
+        <v>122.6</v>
       </c>
       <c r="S26" s="11">
-        <v>104.8</v>
+        <v>105.6</v>
       </c>
       <c r="T26" s="11">
-        <v>122.2</v>
+        <v>122.6</v>
       </c>
       <c r="U26" s="11">
-        <v>104.8</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -2906,7 +2906,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="11">
-        <v>2221.6999999999998</v>
+        <v>2371.6999999999998</v>
       </c>
       <c r="C28" s="11">
         <v>2114.1999999999998</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="11">
-        <v>2741.5</v>
+        <v>2891.5</v>
       </c>
       <c r="O28" s="11">
         <v>2634</v>
@@ -3039,13 +3039,13 @@
         <v>775.3</v>
       </c>
       <c r="C30" s="9">
-        <v>745.3</v>
+        <v>775.3</v>
       </c>
       <c r="D30" s="9">
-        <v>2773.5</v>
+        <v>2783.3</v>
       </c>
       <c r="E30" s="9">
-        <v>1152</v>
+        <v>1247.5</v>
       </c>
       <c r="F30" s="9">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>7207.7</v>
       </c>
       <c r="J30" s="9">
-        <v>4175.7</v>
+        <v>4182.7</v>
       </c>
       <c r="K30" s="9">
         <v>4173.2</v>
@@ -3072,28 +3072,28 @@
         <v>0</v>
       </c>
       <c r="N30" s="9">
-        <v>14976.2</v>
+        <v>14993</v>
       </c>
       <c r="O30" s="9">
-        <v>13278.2</v>
+        <v>13403.7</v>
       </c>
       <c r="P30" s="9">
-        <v>1073.7</v>
+        <v>1103.9000000000001</v>
       </c>
       <c r="Q30" s="9">
-        <v>606</v>
+        <v>622.20000000000005</v>
       </c>
       <c r="R30" s="9">
-        <v>3847.2</v>
+        <v>3887.2</v>
       </c>
       <c r="S30" s="9">
-        <v>1758</v>
+        <v>1869.7</v>
       </c>
       <c r="T30" s="9">
-        <v>3847.2</v>
+        <v>3887.2</v>
       </c>
       <c r="U30" s="9">
-        <v>1758</v>
+        <v>1869.7</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3143,22 +3143,22 @@
         <v>44.9</v>
       </c>
       <c r="P31" s="11">
-        <v>79.3</v>
+        <v>80.8</v>
       </c>
       <c r="Q31" s="11">
-        <v>53.4</v>
+        <v>54.2</v>
       </c>
       <c r="R31" s="11">
-        <v>110</v>
+        <v>111.5</v>
       </c>
       <c r="S31" s="11">
-        <v>84.1</v>
+        <v>84.9</v>
       </c>
       <c r="T31" s="11">
-        <v>110</v>
+        <v>111.5</v>
       </c>
       <c r="U31" s="11">
-        <v>84.1</v>
+        <v>84.9</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -3208,22 +3208,22 @@
         <v>12</v>
       </c>
       <c r="P32" s="11">
-        <v>38.4</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="11">
-        <v>20.3</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="R32" s="11">
-        <v>38.4</v>
+        <v>41</v>
       </c>
       <c r="S32" s="11">
-        <v>20.3</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="T32" s="11">
-        <v>38.4</v>
+        <v>41</v>
       </c>
       <c r="U32" s="11">
-        <v>20.3</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3273,22 +3273,22 @@
         <v>1423.9</v>
       </c>
       <c r="P33" s="11">
-        <v>150.80000000000001</v>
+        <v>153.1</v>
       </c>
       <c r="Q33" s="11">
-        <v>99.5</v>
+        <v>102</v>
       </c>
       <c r="R33" s="11">
-        <v>251.6</v>
+        <v>253.9</v>
       </c>
       <c r="S33" s="11">
-        <v>180.3</v>
+        <v>182.8</v>
       </c>
       <c r="T33" s="11">
-        <v>251.6</v>
+        <v>253.9</v>
       </c>
       <c r="U33" s="11">
-        <v>180.3</v>
+        <v>182.8</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3305,7 +3305,7 @@
         <v>680.9</v>
       </c>
       <c r="E34" s="11">
-        <v>71.2</v>
+        <v>91.2</v>
       </c>
       <c r="F34" s="11">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>3626.2</v>
       </c>
       <c r="O34" s="11">
-        <v>3014.5</v>
+        <v>3034.5</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>49</v>
@@ -3364,7 +3364,7 @@
         <v>190</v>
       </c>
       <c r="C35" s="11">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="D35" s="11">
         <v>87</v>
@@ -3400,25 +3400,25 @@
         <v>1009</v>
       </c>
       <c r="O35" s="11">
-        <v>972.4</v>
+        <v>1002.4</v>
       </c>
       <c r="P35" s="11">
-        <v>537.20000000000005</v>
+        <v>554.5</v>
       </c>
       <c r="Q35" s="11">
-        <v>279.3</v>
+        <v>289.2</v>
       </c>
       <c r="R35" s="11">
-        <v>624.20000000000005</v>
+        <v>641.5</v>
       </c>
       <c r="S35" s="11">
-        <v>358.6</v>
+        <v>368.5</v>
       </c>
       <c r="T35" s="11">
-        <v>624.20000000000005</v>
+        <v>641.5</v>
       </c>
       <c r="U35" s="11">
-        <v>358.6</v>
+        <v>368.5</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="11">
-        <v>1788.6</v>
+        <v>1798.4</v>
       </c>
       <c r="E36" s="11">
-        <v>887.5</v>
+        <v>963</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>2004.1</v>
       </c>
       <c r="J36" s="11">
-        <v>487.5</v>
+        <v>492.7</v>
       </c>
       <c r="K36" s="11">
         <v>487.5</v>
@@ -3462,28 +3462,28 @@
         <v>0</v>
       </c>
       <c r="N36" s="11">
-        <v>4280.2</v>
+        <v>4295.2</v>
       </c>
       <c r="O36" s="11">
-        <v>3379.1</v>
+        <v>3454.6</v>
       </c>
       <c r="P36" s="11">
-        <v>102.1</v>
+        <v>105.4</v>
       </c>
       <c r="Q36" s="11">
-        <v>64</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="R36" s="11">
-        <v>1890.7</v>
+        <v>1903.8</v>
       </c>
       <c r="S36" s="11">
-        <v>951.5</v>
+        <v>1028.0999999999999</v>
       </c>
       <c r="T36" s="11">
-        <v>1890.7</v>
+        <v>1903.8</v>
       </c>
       <c r="U36" s="11">
-        <v>951.5</v>
+        <v>1028.0999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -3533,22 +3533,22 @@
         <v>1790.4</v>
       </c>
       <c r="P37" s="11">
-        <v>32.6</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Q37" s="11">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="R37" s="11">
-        <v>35.1</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="S37" s="11">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="T37" s="11">
-        <v>35.1</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="U37" s="11">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>866</v>
       </c>
       <c r="J38" s="11">
-        <v>890.6</v>
+        <v>892.4</v>
       </c>
       <c r="K38" s="11">
         <v>889</v>
@@ -3592,28 +3592,28 @@
         <v>0</v>
       </c>
       <c r="N38" s="11">
-        <v>1839.6</v>
+        <v>1841.4</v>
       </c>
       <c r="O38" s="11">
         <v>1755</v>
       </c>
       <c r="P38" s="11">
-        <v>29.4</v>
+        <v>30.2</v>
       </c>
       <c r="Q38" s="11">
-        <v>20.7</v>
+        <v>21.5</v>
       </c>
       <c r="R38" s="11">
-        <v>112.4</v>
+        <v>113.2</v>
       </c>
       <c r="S38" s="11">
-        <v>20.7</v>
+        <v>21.5</v>
       </c>
       <c r="T38" s="11">
-        <v>112.4</v>
+        <v>113.2</v>
       </c>
       <c r="U38" s="11">
-        <v>20.7</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3663,19 +3663,19 @@
         <v>886</v>
       </c>
       <c r="P39" s="11">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Q39" s="11">
         <v>3.1</v>
       </c>
       <c r="R39" s="11">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="S39" s="11">
         <v>3.1</v>
       </c>
       <c r="T39" s="11">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="U39" s="11">
         <v>3.1</v>
@@ -3707,7 +3707,7 @@
         <v>6919.8</v>
       </c>
       <c r="I40" s="9">
-        <v>6724.9</v>
+        <v>6726.9</v>
       </c>
       <c r="J40" s="9">
         <v>1209.5</v>
@@ -3725,25 +3725,25 @@
         <v>8288.6</v>
       </c>
       <c r="O40" s="9">
-        <v>8009.4</v>
+        <v>8011.4</v>
       </c>
       <c r="P40" s="9">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="Q40" s="9">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="R40" s="9">
-        <v>186.4</v>
+        <v>186.5</v>
       </c>
       <c r="S40" s="9">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="T40" s="9">
-        <v>186.4</v>
+        <v>186.5</v>
       </c>
       <c r="U40" s="9">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
         <v>1030.2</v>
       </c>
       <c r="I42" s="11">
-        <v>835.3</v>
+        <v>837.3</v>
       </c>
       <c r="J42" s="11">
         <v>69.7</v>
@@ -3855,25 +3855,25 @@
         <v>1109.9000000000001</v>
       </c>
       <c r="O42" s="11">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="P42" s="11">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="Q42" s="11">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="R42" s="11">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="S42" s="11">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="T42" s="11">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="U42" s="11">
-        <v>9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -3926,19 +3926,19 @@
         <v>3.2</v>
       </c>
       <c r="Q43" s="11">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R43" s="11">
         <v>3.2</v>
       </c>
       <c r="S43" s="11">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T43" s="11">
         <v>3.2</v>
       </c>
       <c r="U43" s="11">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4011,13 +4011,13 @@
         <v>60</v>
       </c>
       <c r="B45" s="9">
-        <v>24414.799999999999</v>
+        <v>24875.200000000001</v>
       </c>
       <c r="C45" s="9">
-        <v>20979.599999999999</v>
+        <v>21279.599999999999</v>
       </c>
       <c r="D45" s="9">
-        <v>433.4</v>
+        <v>593.4</v>
       </c>
       <c r="E45" s="9">
         <v>220.4</v>
@@ -4047,28 +4047,28 @@
         <v>0</v>
       </c>
       <c r="N45" s="9">
-        <v>29207.7</v>
+        <v>29828.1</v>
       </c>
       <c r="O45" s="9">
-        <v>25555.5</v>
+        <v>25855.5</v>
       </c>
       <c r="P45" s="9">
-        <v>359.3</v>
+        <v>369.1</v>
       </c>
       <c r="Q45" s="9">
-        <v>256.89999999999998</v>
+        <v>257.7</v>
       </c>
       <c r="R45" s="9">
-        <v>792.7</v>
+        <v>962.5</v>
       </c>
       <c r="S45" s="9">
-        <v>477.3</v>
+        <v>478.1</v>
       </c>
       <c r="T45" s="9">
-        <v>792.7</v>
+        <v>962.5</v>
       </c>
       <c r="U45" s="9">
-        <v>477.3</v>
+        <v>478.1</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -4121,19 +4121,19 @@
         <v>4.7</v>
       </c>
       <c r="Q46" s="11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R46" s="11">
         <v>16.7</v>
       </c>
       <c r="S46" s="11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T46" s="11">
         <v>16.7</v>
       </c>
       <c r="U46" s="11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -4183,22 +4183,22 @@
         <v>687.1</v>
       </c>
       <c r="P47" s="11">
-        <v>118.8</v>
+        <v>120</v>
       </c>
       <c r="Q47" s="11">
-        <v>108.1</v>
+        <v>107</v>
       </c>
       <c r="R47" s="11">
-        <v>118.8</v>
+        <v>120</v>
       </c>
       <c r="S47" s="11">
-        <v>108.1</v>
+        <v>107</v>
       </c>
       <c r="T47" s="11">
-        <v>118.8</v>
+        <v>120</v>
       </c>
       <c r="U47" s="11">
-        <v>108.1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>5451.2</v>
       </c>
       <c r="C48" s="11">
-        <v>4328.3999999999996</v>
+        <v>4428.3999999999996</v>
       </c>
       <c r="D48" s="11">
         <v>2.5</v>
@@ -4245,25 +4245,25 @@
         <v>6389.5</v>
       </c>
       <c r="O48" s="11">
-        <v>5268.7</v>
+        <v>5368.7</v>
       </c>
       <c r="P48" s="11">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q48" s="11">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R48" s="11">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="S48" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="T48" s="11">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U48" s="11">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -4271,13 +4271,13 @@
         <v>64</v>
       </c>
       <c r="B49" s="11">
-        <v>18963.599999999999</v>
+        <v>19424</v>
       </c>
       <c r="C49" s="11">
-        <v>16651.2</v>
+        <v>16851.2</v>
       </c>
       <c r="D49" s="11">
-        <v>418.9</v>
+        <v>578.9</v>
       </c>
       <c r="E49" s="11">
         <v>217.9</v>
@@ -4307,28 +4307,28 @@
         <v>0</v>
       </c>
       <c r="N49" s="11">
-        <v>20540.5</v>
+        <v>21160.9</v>
       </c>
       <c r="O49" s="11">
-        <v>18021.099999999999</v>
+        <v>18221.099999999999</v>
       </c>
       <c r="P49" s="11">
-        <v>232.7</v>
+        <v>241.2</v>
       </c>
       <c r="Q49" s="11">
-        <v>143.4</v>
+        <v>145.1</v>
       </c>
       <c r="R49" s="11">
-        <v>651.6</v>
+        <v>820.1</v>
       </c>
       <c r="S49" s="11">
-        <v>361.3</v>
+        <v>363</v>
       </c>
       <c r="T49" s="11">
-        <v>651.6</v>
+        <v>820.1</v>
       </c>
       <c r="U49" s="11">
-        <v>361.3</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -4336,22 +4336,22 @@
         <v>65</v>
       </c>
       <c r="B50" s="9">
-        <v>8008.1</v>
+        <v>8068.9</v>
       </c>
       <c r="C50" s="9">
-        <v>7414.6</v>
+        <v>7564.6</v>
       </c>
       <c r="D50" s="9">
-        <v>3892.9</v>
+        <v>3992.9</v>
       </c>
       <c r="E50" s="9">
-        <v>2284</v>
+        <v>2325.4</v>
       </c>
       <c r="F50" s="9">
         <v>473.9</v>
       </c>
       <c r="G50" s="9">
-        <v>363.9</v>
+        <v>473.9</v>
       </c>
       <c r="H50" s="9">
         <v>10561.7</v>
@@ -4372,28 +4372,28 @@
         <v>544.79999999999995</v>
       </c>
       <c r="N50" s="9">
-        <v>23657.8</v>
+        <v>23818.6</v>
       </c>
       <c r="O50" s="9">
-        <v>21344.2</v>
+        <v>21645.599999999999</v>
       </c>
       <c r="P50" s="9">
-        <v>1586</v>
+        <v>1607.4</v>
       </c>
       <c r="Q50" s="9">
-        <v>1248.9000000000001</v>
+        <v>1275.5999999999999</v>
       </c>
       <c r="R50" s="9">
-        <v>5478.9</v>
+        <v>5600.3</v>
       </c>
       <c r="S50" s="9">
-        <v>3532.9</v>
+        <v>3601</v>
       </c>
       <c r="T50" s="9">
-        <v>5952.8</v>
+        <v>6074.2</v>
       </c>
       <c r="U50" s="9">
-        <v>3896.8</v>
+        <v>4074.9</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>267.3</v>
       </c>
       <c r="D51" s="11">
-        <v>1288.3</v>
+        <v>1338.3</v>
       </c>
       <c r="E51" s="11">
         <v>1182.0999999999999</v>
@@ -4437,28 +4437,28 @@
         <v>0</v>
       </c>
       <c r="N51" s="11">
-        <v>4602.6000000000004</v>
+        <v>4652.6000000000004</v>
       </c>
       <c r="O51" s="11">
         <v>4496.3999999999996</v>
       </c>
       <c r="P51" s="11">
-        <v>883</v>
+        <v>894.2</v>
       </c>
       <c r="Q51" s="11">
-        <v>742.8</v>
+        <v>752.2</v>
       </c>
       <c r="R51" s="11">
-        <v>2171.3000000000002</v>
+        <v>2232.5</v>
       </c>
       <c r="S51" s="11">
-        <v>1924.9</v>
+        <v>1934.3</v>
       </c>
       <c r="T51" s="11">
-        <v>2466.6999999999998</v>
+        <v>2527.9</v>
       </c>
       <c r="U51" s="11">
-        <v>2220.3000000000002</v>
+        <v>2229.6999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -4466,10 +4466,10 @@
         <v>67</v>
       </c>
       <c r="B52" s="11">
-        <v>2961.8</v>
+        <v>3022.6</v>
       </c>
       <c r="C52" s="11">
-        <v>2837.1</v>
+        <v>2987.1</v>
       </c>
       <c r="D52" s="11">
         <v>368.2</v>
@@ -4502,28 +4502,28 @@
         <v>0</v>
       </c>
       <c r="N52" s="11">
-        <v>4035.1</v>
+        <v>4095.9</v>
       </c>
       <c r="O52" s="11">
-        <v>3673</v>
+        <v>3823</v>
       </c>
       <c r="P52" s="11">
-        <v>281.39999999999998</v>
+        <v>283.7</v>
       </c>
       <c r="Q52" s="11">
-        <v>243.3</v>
+        <v>247.3</v>
       </c>
       <c r="R52" s="11">
-        <v>649.6</v>
+        <v>651.9</v>
       </c>
       <c r="S52" s="11">
-        <v>375.3</v>
+        <v>379.3</v>
       </c>
       <c r="T52" s="11">
-        <v>649.6</v>
+        <v>651.9</v>
       </c>
       <c r="U52" s="11">
-        <v>375.3</v>
+        <v>379.3</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -4573,22 +4573,22 @@
         <v>3776.1</v>
       </c>
       <c r="P53" s="11">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="Q53" s="11">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="R53" s="11">
-        <v>46.7</v>
+        <v>47</v>
       </c>
       <c r="S53" s="11">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T53" s="11">
-        <v>46.7</v>
+        <v>47</v>
       </c>
       <c r="U53" s="11">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -4638,22 +4638,22 @@
         <v>3414.1</v>
       </c>
       <c r="P54" s="11">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Q54" s="11">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="R54" s="11">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="S54" s="11">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="T54" s="11">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U54" s="11">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -4670,13 +4670,13 @@
         <v>1044.2</v>
       </c>
       <c r="E55" s="11">
-        <v>669.7</v>
+        <v>711.1</v>
       </c>
       <c r="F55" s="11">
         <v>178.5</v>
       </c>
       <c r="G55" s="11">
-        <v>68.5</v>
+        <v>178.5</v>
       </c>
       <c r="H55" s="11">
         <v>1051.4000000000001</v>
@@ -4700,25 +4700,25 @@
         <v>2887.5</v>
       </c>
       <c r="O55" s="11">
-        <v>2403</v>
+        <v>2554.4</v>
       </c>
       <c r="P55" s="11">
-        <v>207.7</v>
+        <v>208.5</v>
       </c>
       <c r="Q55" s="11">
-        <v>132.6</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="R55" s="11">
-        <v>1251.9000000000001</v>
+        <v>1252.7</v>
       </c>
       <c r="S55" s="11">
-        <v>802.3</v>
+        <v>851.9</v>
       </c>
       <c r="T55" s="11">
-        <v>1430.4</v>
+        <v>1431.2</v>
       </c>
       <c r="U55" s="11">
-        <v>870.8</v>
+        <v>1030.4000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -4768,22 +4768,22 @@
         <v>1174.8</v>
       </c>
       <c r="P56" s="11">
-        <v>91.5</v>
+        <v>93.2</v>
       </c>
       <c r="Q56" s="11">
-        <v>73.8</v>
+        <v>75</v>
       </c>
       <c r="R56" s="11">
-        <v>546.9</v>
+        <v>548.6</v>
       </c>
       <c r="S56" s="11">
-        <v>349.6</v>
+        <v>350.8</v>
       </c>
       <c r="T56" s="11">
-        <v>546.9</v>
+        <v>548.6</v>
       </c>
       <c r="U56" s="11">
-        <v>349.6</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -4797,7 +4797,7 @@
         <v>324.39999999999998</v>
       </c>
       <c r="D57" s="11">
-        <v>696.8</v>
+        <v>746.8</v>
       </c>
       <c r="E57" s="11">
         <v>24.4</v>
@@ -4827,28 +4827,28 @@
         <v>73</v>
       </c>
       <c r="N57" s="11">
-        <v>1428.6</v>
+        <v>1478.6</v>
       </c>
       <c r="O57" s="11">
         <v>692.4</v>
       </c>
       <c r="P57" s="11">
-        <v>105.5</v>
+        <v>110.8</v>
       </c>
       <c r="Q57" s="11">
-        <v>44.4</v>
+        <v>48.1</v>
       </c>
       <c r="R57" s="11">
-        <v>802.3</v>
+        <v>857.6</v>
       </c>
       <c r="S57" s="11">
-        <v>68.8</v>
+        <v>72.5</v>
       </c>
       <c r="T57" s="11">
-        <v>802.3</v>
+        <v>857.6</v>
       </c>
       <c r="U57" s="11">
-        <v>68.8</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -4900,14 +4900,14 @@
       <c r="P58" s="11">
         <v>2.4</v>
       </c>
-      <c r="Q58" s="11">
-        <v>1.8</v>
+      <c r="Q58" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="R58" s="11">
         <v>2.4</v>
       </c>
-      <c r="S58" s="11">
-        <v>1.8</v>
+      <c r="S58" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="T58" s="11">
         <v>2.4</v>
@@ -4924,13 +4924,13 @@
         <v>11967.3</v>
       </c>
       <c r="C59" s="9">
-        <v>12218.9</v>
+        <v>11871.4</v>
       </c>
       <c r="D59" s="9">
-        <v>7579</v>
+        <v>7790.8</v>
       </c>
       <c r="E59" s="9">
-        <v>5291.9</v>
+        <v>5463.4</v>
       </c>
       <c r="F59" s="9">
         <v>1284</v>
@@ -4939,7 +4939,7 @@
         <v>1327.8</v>
       </c>
       <c r="H59" s="9">
-        <v>39986.1</v>
+        <v>40022.1</v>
       </c>
       <c r="I59" s="9">
         <v>39953.800000000003</v>
@@ -4948,7 +4948,7 @@
         <v>2074.4</v>
       </c>
       <c r="K59" s="9">
-        <v>2062.1999999999998</v>
+        <v>2057.6999999999998</v>
       </c>
       <c r="L59" s="9">
         <v>1953.7</v>
@@ -4957,28 +4957,28 @@
         <v>1953.7</v>
       </c>
       <c r="N59" s="9">
-        <v>64844.5</v>
+        <v>65092.3</v>
       </c>
       <c r="O59" s="9">
-        <v>62808.3</v>
+        <v>62627.8</v>
       </c>
       <c r="P59" s="9">
-        <v>5241.2</v>
+        <v>5379.6</v>
       </c>
       <c r="Q59" s="9">
-        <v>3770</v>
+        <v>3876.5</v>
       </c>
       <c r="R59" s="9">
-        <v>12820.2</v>
+        <v>13170.4</v>
       </c>
       <c r="S59" s="9">
-        <v>9061.9</v>
+        <v>9339.9</v>
       </c>
       <c r="T59" s="9">
-        <v>14104.2</v>
+        <v>14454.4</v>
       </c>
       <c r="U59" s="9">
-        <v>10389.700000000001</v>
+        <v>10667.7</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
@@ -4989,13 +4989,13 @@
         <v>5726.8</v>
       </c>
       <c r="C60" s="11">
-        <v>5988.4</v>
+        <v>5640.9</v>
       </c>
       <c r="D60" s="11">
-        <v>7530.9</v>
+        <v>7718.2</v>
       </c>
       <c r="E60" s="11">
-        <v>5277.5</v>
+        <v>5449</v>
       </c>
       <c r="F60" s="11">
         <v>1284</v>
@@ -5022,28 +5022,28 @@
         <v>1934.2</v>
       </c>
       <c r="N60" s="11">
-        <v>28015.9</v>
+        <v>28203.200000000001</v>
       </c>
       <c r="O60" s="11">
-        <v>26036.3</v>
+        <v>25860.3</v>
       </c>
       <c r="P60" s="11">
-        <v>5081.3999999999996</v>
+        <v>5216.8999999999996</v>
       </c>
       <c r="Q60" s="11">
-        <v>3652.2</v>
+        <v>3755.5</v>
       </c>
       <c r="R60" s="11">
-        <v>12612.3</v>
+        <v>12935.1</v>
       </c>
       <c r="S60" s="11">
-        <v>8929.7000000000007</v>
+        <v>9204.5</v>
       </c>
       <c r="T60" s="11">
-        <v>13896.3</v>
+        <v>14219.1</v>
       </c>
       <c r="U60" s="11">
-        <v>10257.5</v>
+        <v>10532.3</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -5057,7 +5057,7 @@
         <v>3157.4</v>
       </c>
       <c r="D61" s="11">
-        <v>47.6</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="E61" s="11">
         <v>13.9</v>
@@ -5078,7 +5078,7 @@
         <v>317.60000000000002</v>
       </c>
       <c r="K61" s="11">
-        <v>334</v>
+        <v>329.5</v>
       </c>
       <c r="L61" s="11">
         <v>19.5</v>
@@ -5087,28 +5087,28 @@
         <v>19.5</v>
       </c>
       <c r="N61" s="11">
-        <v>12077.5</v>
+        <v>12102</v>
       </c>
       <c r="O61" s="11">
-        <v>12050.2</v>
+        <v>12045.7</v>
       </c>
       <c r="P61" s="11">
-        <v>86.6</v>
+        <v>88</v>
       </c>
       <c r="Q61" s="11">
-        <v>69</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="R61" s="11">
-        <v>134.19999999999999</v>
+        <v>160.1</v>
       </c>
       <c r="S61" s="11">
-        <v>82.9</v>
+        <v>84</v>
       </c>
       <c r="T61" s="11">
-        <v>134.19999999999999</v>
+        <v>160.1</v>
       </c>
       <c r="U61" s="11">
-        <v>82.9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="11">
-        <v>21274.5</v>
+        <v>21310.5</v>
       </c>
       <c r="I62" s="11">
         <v>21242.2</v>
@@ -5152,28 +5152,28 @@
         <v>0</v>
       </c>
       <c r="N62" s="11">
-        <v>24751.1</v>
+        <v>24787.1</v>
       </c>
       <c r="O62" s="11">
         <v>24721.8</v>
       </c>
       <c r="P62" s="11">
-        <v>73.2</v>
+        <v>74.7</v>
       </c>
       <c r="Q62" s="11">
-        <v>48.8</v>
+        <v>51</v>
       </c>
       <c r="R62" s="11">
-        <v>73.7</v>
+        <v>75.2</v>
       </c>
       <c r="S62" s="11">
-        <v>49.3</v>
+        <v>51.5</v>
       </c>
       <c r="T62" s="11">
-        <v>73.7</v>
+        <v>75.2</v>
       </c>
       <c r="U62" s="11">
-        <v>49.3</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -5223,22 +5223,22 @@
         <v>1071.5999999999999</v>
       </c>
       <c r="P63" s="9">
-        <v>436.1</v>
+        <v>439</v>
       </c>
       <c r="Q63" s="9">
-        <v>378.9</v>
+        <v>384.9</v>
       </c>
       <c r="R63" s="9">
-        <v>486.8</v>
+        <v>489.7</v>
       </c>
       <c r="S63" s="9">
-        <v>423.1</v>
+        <v>429.1</v>
       </c>
       <c r="T63" s="9">
-        <v>486.8</v>
+        <v>489.7</v>
       </c>
       <c r="U63" s="9">
-        <v>423.1</v>
+        <v>429.1</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -5353,22 +5353,22 @@
         <v>562.9</v>
       </c>
       <c r="P65" s="11">
-        <v>436.1</v>
+        <v>439</v>
       </c>
       <c r="Q65" s="11">
-        <v>378.9</v>
+        <v>384.9</v>
       </c>
       <c r="R65" s="11">
-        <v>486.8</v>
+        <v>489.7</v>
       </c>
       <c r="S65" s="11">
-        <v>423.1</v>
+        <v>429.1</v>
       </c>
       <c r="T65" s="11">
-        <v>486.8</v>
+        <v>489.7</v>
       </c>
       <c r="U65" s="11">
-        <v>423.1</v>
+        <v>429.1</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -5376,34 +5376,34 @@
         <v>81</v>
       </c>
       <c r="B66" s="9">
-        <v>75427.100000000006</v>
+        <v>76125.899999999994</v>
       </c>
       <c r="C66" s="9">
-        <v>69967.8</v>
+        <v>70207.600000000006</v>
       </c>
       <c r="D66" s="9">
-        <v>16150.7</v>
+        <v>16636.900000000001</v>
       </c>
       <c r="E66" s="9">
-        <v>10156.700000000001</v>
+        <v>10478.700000000001</v>
       </c>
       <c r="F66" s="9">
         <v>1757.9</v>
       </c>
       <c r="G66" s="9">
-        <v>1691.7</v>
+        <v>1801.7</v>
       </c>
       <c r="H66" s="9">
-        <v>79949.3</v>
+        <v>79985.3</v>
       </c>
       <c r="I66" s="9">
-        <v>79656.2</v>
+        <v>79658.2</v>
       </c>
       <c r="J66" s="9">
-        <v>14109.5</v>
+        <v>14116.5</v>
       </c>
       <c r="K66" s="9">
-        <v>14179.8</v>
+        <v>14122.4</v>
       </c>
       <c r="L66" s="9">
         <v>2541.5</v>
@@ -5412,28 +5412,28 @@
         <v>2541.5</v>
       </c>
       <c r="N66" s="9">
-        <v>189936</v>
+        <v>191164</v>
       </c>
       <c r="O66" s="9">
-        <v>178193.7</v>
+        <v>178810.1</v>
       </c>
       <c r="P66" s="9">
-        <v>12575.5</v>
+        <v>12863.5</v>
       </c>
       <c r="Q66" s="9">
-        <v>9188.4</v>
+        <v>9416.7000000000007</v>
       </c>
       <c r="R66" s="9">
-        <v>28726.2</v>
+        <v>29500.400000000001</v>
       </c>
       <c r="S66" s="9">
-        <v>19345.099999999999</v>
+        <v>19895.400000000001</v>
       </c>
       <c r="T66" s="9">
-        <v>30484.1</v>
+        <v>31258.3</v>
       </c>
       <c r="U66" s="9">
-        <v>21036.799999999999</v>
+        <v>21697.1</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
